--- a/Code/Results/Cases/Case_0_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9969766779418621</v>
+        <v>1.028910173402931</v>
       </c>
       <c r="D2">
-        <v>1.00999967757662</v>
+        <v>1.038138879877032</v>
       </c>
       <c r="E2">
-        <v>1.003874674383178</v>
+        <v>1.028817105104139</v>
       </c>
       <c r="F2">
-        <v>1.011593791574828</v>
+        <v>1.04491299270009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046171889043115</v>
+        <v>1.031649153012914</v>
       </c>
       <c r="J2">
-        <v>1.019248193618578</v>
+        <v>1.034059873731365</v>
       </c>
       <c r="K2">
-        <v>1.021321436925865</v>
+        <v>1.040927765599148</v>
       </c>
       <c r="L2">
-        <v>1.015280291488849</v>
+        <v>1.031632820015957</v>
       </c>
       <c r="M2">
-        <v>1.022893935307709</v>
+        <v>1.047682707642708</v>
       </c>
       <c r="N2">
-        <v>1.010392805104633</v>
+        <v>1.015364879796459</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001561461648685</v>
+        <v>1.029861912281781</v>
       </c>
       <c r="D3">
-        <v>1.014172466012273</v>
+        <v>1.039060141937868</v>
       </c>
       <c r="E3">
-        <v>1.007528094692494</v>
+        <v>1.029624621685975</v>
       </c>
       <c r="F3">
-        <v>1.016359713143651</v>
+        <v>1.045982851177255</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047296604069773</v>
+        <v>1.031778346725071</v>
       </c>
       <c r="J3">
-        <v>1.022009649965792</v>
+        <v>1.034652409876265</v>
       </c>
       <c r="K3">
-        <v>1.024627162979122</v>
+        <v>1.041658685233339</v>
       </c>
       <c r="L3">
-        <v>1.01806554985388</v>
+        <v>1.032248353038171</v>
       </c>
       <c r="M3">
-        <v>1.0267874616427</v>
+        <v>1.048563226489965</v>
       </c>
       <c r="N3">
-        <v>1.011309892809871</v>
+        <v>1.015561069486552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0044628369051</v>
+        <v>1.030477618998801</v>
       </c>
       <c r="D4">
-        <v>1.016818078878407</v>
+        <v>1.039656466401835</v>
       </c>
       <c r="E4">
-        <v>1.009846133014363</v>
+        <v>1.030147424307103</v>
       </c>
       <c r="F4">
-        <v>1.019382744543222</v>
+        <v>1.046675649200385</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047990568640347</v>
+        <v>1.031859689918602</v>
       </c>
       <c r="J4">
-        <v>1.02375306772357</v>
+        <v>1.035035090525951</v>
       </c>
       <c r="K4">
-        <v>1.026717675068288</v>
+        <v>1.04213121930382</v>
       </c>
       <c r="L4">
-        <v>1.01982715878905</v>
+        <v>1.032646280229683</v>
       </c>
       <c r="M4">
-        <v>1.029252732552623</v>
+        <v>1.049132912718913</v>
       </c>
       <c r="N4">
-        <v>1.011888845599126</v>
+        <v>1.01568775280963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005667501618483</v>
+        <v>1.030736429830419</v>
       </c>
       <c r="D5">
-        <v>1.017917707136212</v>
+        <v>1.039907209602056</v>
       </c>
       <c r="E5">
-        <v>1.010810001459461</v>
+        <v>1.030367277722646</v>
       </c>
       <c r="F5">
-        <v>1.020639592591548</v>
+        <v>1.046967027071237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048274372742331</v>
+        <v>1.03189334628578</v>
       </c>
       <c r="J5">
-        <v>1.024475919226814</v>
+        <v>1.035195793924522</v>
       </c>
       <c r="K5">
-        <v>1.027585283669643</v>
+        <v>1.042329771257815</v>
       </c>
       <c r="L5">
-        <v>1.020558313838463</v>
+        <v>1.032813480848956</v>
       </c>
       <c r="M5">
-        <v>1.030276618048226</v>
+        <v>1.04937239160569</v>
       </c>
       <c r="N5">
-        <v>1.012128877542869</v>
+        <v>1.015740946850848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005868901833784</v>
+        <v>1.030779883395647</v>
       </c>
       <c r="D6">
-        <v>1.018101614094422</v>
+        <v>1.039949313297573</v>
       </c>
       <c r="E6">
-        <v>1.010971225991316</v>
+        <v>1.030404195985761</v>
       </c>
       <c r="F6">
-        <v>1.020849814841205</v>
+        <v>1.047015958037714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048321563472373</v>
+        <v>1.031898965631727</v>
       </c>
       <c r="J6">
-        <v>1.024596706868774</v>
+        <v>1.035222766414228</v>
       </c>
       <c r="K6">
-        <v>1.027730310136577</v>
+        <v>1.042363103034891</v>
       </c>
       <c r="L6">
-        <v>1.020680533819546</v>
+        <v>1.032841549384506</v>
       </c>
       <c r="M6">
-        <v>1.030447811373219</v>
+        <v>1.049412600131087</v>
       </c>
       <c r="N6">
-        <v>1.012168985833519</v>
+        <v>1.015749874624496</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004478992207088</v>
+        <v>1.030481077369467</v>
       </c>
       <c r="D7">
-        <v>1.016832821044855</v>
+        <v>1.03965981665585</v>
       </c>
       <c r="E7">
-        <v>1.009859053582535</v>
+        <v>1.030150361736612</v>
       </c>
       <c r="F7">
-        <v>1.019399593071069</v>
+        <v>1.046679542113363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047994391840456</v>
+        <v>1.031860141760645</v>
       </c>
       <c r="J7">
-        <v>1.023762765707132</v>
+        <v>1.035037238543448</v>
       </c>
       <c r="K7">
-        <v>1.026729311794642</v>
+        <v>1.042133872764162</v>
       </c>
       <c r="L7">
-        <v>1.019836965162601</v>
+        <v>1.032648514719318</v>
       </c>
       <c r="M7">
-        <v>1.029266462370698</v>
+        <v>1.049136112716189</v>
       </c>
       <c r="N7">
-        <v>1.011892065986927</v>
+        <v>1.015688463841408</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9985399895354991</v>
+        <v>1.029231844935385</v>
       </c>
       <c r="D8">
-        <v>1.011421446122139</v>
+        <v>1.038450181390496</v>
       </c>
       <c r="E8">
-        <v>1.005119112055116</v>
+        <v>1.029089949343292</v>
       </c>
       <c r="F8">
-        <v>1.013217382454029</v>
+        <v>1.045274446545542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046559085830695</v>
+        <v>1.031693280842871</v>
       </c>
       <c r="J8">
-        <v>1.020190628527035</v>
+        <v>1.034260274728755</v>
       </c>
       <c r="K8">
-        <v>1.022448897672747</v>
+        <v>1.041174869717002</v>
       </c>
       <c r="L8">
-        <v>1.016230185351032</v>
+        <v>1.031840917096196</v>
       </c>
       <c r="M8">
-        <v>1.024221243545968</v>
+        <v>1.047980296756139</v>
       </c>
       <c r="N8">
-        <v>1.010705797885713</v>
+        <v>1.015431237612965</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9875481023217331</v>
+        <v>1.027029556124566</v>
       </c>
       <c r="D9">
-        <v>1.001447318097716</v>
+        <v>1.036320272835548</v>
       </c>
       <c r="E9">
-        <v>0.996397017444195</v>
+        <v>1.027223602365327</v>
       </c>
       <c r="F9">
-        <v>1.00183226771195</v>
+        <v>1.042802568995058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043763636755476</v>
+        <v>1.03138202197568</v>
       </c>
       <c r="J9">
-        <v>1.013548363720425</v>
+        <v>1.032885610837269</v>
       </c>
       <c r="K9">
-        <v>1.014516957138661</v>
+        <v>1.039481806195927</v>
       </c>
       <c r="L9">
-        <v>1.009548822261491</v>
+        <v>1.030415078214094</v>
       </c>
       <c r="M9">
-        <v>1.014895687434606</v>
+        <v>1.045943114441034</v>
       </c>
       <c r="N9">
-        <v>1.008499741188292</v>
+        <v>1.014975959225688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9798263076921767</v>
+        <v>1.025560740107344</v>
       </c>
       <c r="D10">
-        <v>0.9944709085066922</v>
+        <v>1.03490148129766</v>
       </c>
       <c r="E10">
-        <v>0.9903073858177386</v>
+        <v>1.025980938630209</v>
       </c>
       <c r="F10">
-        <v>0.9938740501251565</v>
+        <v>1.041157440085454</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041709886788155</v>
+        <v>1.03116297527142</v>
       </c>
       <c r="J10">
-        <v>1.008863838522134</v>
+        <v>1.03196547974663</v>
       </c>
       <c r="K10">
-        <v>1.008940715197917</v>
+        <v>1.038351009346728</v>
       </c>
       <c r="L10">
-        <v>1.004853876767088</v>
+        <v>1.029462720256051</v>
       </c>
       <c r="M10">
-        <v>1.008354798443414</v>
+        <v>1.044584712374935</v>
       </c>
       <c r="N10">
-        <v>1.006943881266148</v>
+        <v>1.014671103920854</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9763795444354543</v>
+        <v>1.024924585496776</v>
       </c>
       <c r="D11">
-        <v>0.9913646742951554</v>
+        <v>1.034287412177596</v>
       </c>
       <c r="E11">
-        <v>0.9875989066813917</v>
+        <v>1.025443236447465</v>
       </c>
       <c r="F11">
-        <v>0.9903315186541767</v>
+        <v>1.040445751590834</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04077277504498</v>
+        <v>1.03106539692451</v>
       </c>
       <c r="J11">
-        <v>1.006769080906222</v>
+        <v>1.031566187067923</v>
       </c>
       <c r="K11">
-        <v>1.006451298512644</v>
+        <v>1.037860876213792</v>
       </c>
       <c r="L11">
-        <v>1.002758541049763</v>
+        <v>1.029049922002814</v>
       </c>
       <c r="M11">
-        <v>1.005438101117221</v>
+        <v>1.04399645187341</v>
       </c>
       <c r="N11">
-        <v>1.006248182899382</v>
+        <v>1.014538784630145</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9750828612344704</v>
+        <v>1.024688267624654</v>
       </c>
       <c r="D12">
-        <v>0.9901973274601161</v>
+        <v>1.034059361995853</v>
       </c>
       <c r="E12">
-        <v>0.986581504825682</v>
+        <v>1.025243567920642</v>
       </c>
       <c r="F12">
-        <v>0.9890003033768946</v>
+        <v>1.040181499054182</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040417251994725</v>
+        <v>1.031028742510847</v>
       </c>
       <c r="J12">
-        <v>1.005980520253131</v>
+        <v>1.031417741966989</v>
       </c>
       <c r="K12">
-        <v>1.005514772156424</v>
+        <v>1.03767874592897</v>
       </c>
       <c r="L12">
-        <v>1.001970377799826</v>
+        <v>1.028896527841701</v>
       </c>
       <c r="M12">
-        <v>1.004341318573967</v>
+        <v>1.043777936849329</v>
       </c>
       <c r="N12">
-        <v>1.00598629790414</v>
+        <v>1.014489588289573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9753617616240445</v>
+        <v>1.0247389595864</v>
       </c>
       <c r="D13">
-        <v>0.9904483528135745</v>
+        <v>1.034108277600832</v>
       </c>
       <c r="E13">
-        <v>0.9868002646434126</v>
+        <v>1.025286394856581</v>
       </c>
       <c r="F13">
-        <v>0.9892865630995207</v>
+        <v>1.040238177573488</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040493853755014</v>
+        <v>1.031036623526373</v>
       </c>
       <c r="J13">
-        <v>1.006150151778308</v>
+        <v>1.031449589818238</v>
       </c>
       <c r="K13">
-        <v>1.005716206398144</v>
+        <v>1.03771781678635</v>
       </c>
       <c r="L13">
-        <v>1.002139896020467</v>
+        <v>1.028929434226932</v>
       </c>
       <c r="M13">
-        <v>1.004577200014117</v>
+        <v>1.043824809455302</v>
       </c>
       <c r="N13">
-        <v>1.006042633030597</v>
+        <v>1.0145001431974</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9762727002434145</v>
+        <v>1.02490505182836</v>
       </c>
       <c r="D14">
-        <v>0.991268461887388</v>
+        <v>1.03426856060815</v>
       </c>
       <c r="E14">
-        <v>0.9875150430742308</v>
+        <v>1.025426730595699</v>
       </c>
       <c r="F14">
-        <v>0.9902217985071935</v>
+        <v>1.040423906344901</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040743540662728</v>
+        <v>1.031062375408702</v>
       </c>
       <c r="J14">
-        <v>1.006704114991917</v>
+        <v>1.031553919198166</v>
       </c>
       <c r="K14">
-        <v>1.006374130226553</v>
+        <v>1.037845822753137</v>
       </c>
       <c r="L14">
-        <v>1.002693595368751</v>
+        <v>1.029037243664557</v>
       </c>
       <c r="M14">
-        <v>1.005347718163254</v>
+        <v>1.043978389530797</v>
       </c>
       <c r="N14">
-        <v>1.006226607229953</v>
+        <v>1.014534719003948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.976831758076924</v>
+        <v>1.025007383874895</v>
       </c>
       <c r="D15">
-        <v>0.9917719397241821</v>
+        <v>1.034367321905811</v>
       </c>
       <c r="E15">
-        <v>0.9879539189955763</v>
+        <v>1.025513203792303</v>
       </c>
       <c r="F15">
-        <v>0.9907959657986165</v>
+        <v>1.04053835327451</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040896387506723</v>
+        <v>1.031078187753204</v>
       </c>
       <c r="J15">
-        <v>1.00704402616918</v>
+        <v>1.03161818276302</v>
       </c>
       <c r="K15">
-        <v>1.006777910435488</v>
+        <v>1.037924681799369</v>
       </c>
       <c r="L15">
-        <v>1.003033425747289</v>
+        <v>1.029103660355958</v>
       </c>
       <c r="M15">
-        <v>1.005820663413717</v>
+        <v>1.044073014126539</v>
       </c>
       <c r="N15">
-        <v>1.006339494595913</v>
+        <v>1.014556016070455</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9800528088758486</v>
+        <v>1.025602956522667</v>
       </c>
       <c r="D16">
-        <v>0.9946751992456742</v>
+        <v>1.034942240948384</v>
       </c>
       <c r="E16">
-        <v>0.9904855800713048</v>
+        <v>1.02601663223277</v>
       </c>
       <c r="F16">
-        <v>0.9941070502853344</v>
+        <v>1.041204686532692</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041771051044124</v>
+        <v>1.031169393767946</v>
       </c>
       <c r="J16">
-        <v>1.009001420613692</v>
+        <v>1.031991961216801</v>
       </c>
       <c r="K16">
-        <v>1.009104302158751</v>
+        <v>1.038383527591035</v>
       </c>
       <c r="L16">
-        <v>1.004991581867732</v>
+        <v>1.02949010751021</v>
       </c>
       <c r="M16">
-        <v>1.008546531899787</v>
+        <v>1.044623752006005</v>
       </c>
       <c r="N16">
-        <v>1.006989575030884</v>
+        <v>1.014679878902581</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9820450510580755</v>
+        <v>1.02597650431579</v>
       </c>
       <c r="D17">
-        <v>0.9964729789387871</v>
+        <v>1.035302947209648</v>
       </c>
       <c r="E17">
-        <v>0.9920540433770129</v>
+        <v>1.026332521883443</v>
       </c>
       <c r="F17">
-        <v>0.996157568965035</v>
+        <v>1.041622837775095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042306727755287</v>
+        <v>1.031225874528443</v>
       </c>
       <c r="J17">
-        <v>1.010211136746564</v>
+        <v>1.032226190154131</v>
       </c>
       <c r="K17">
-        <v>1.010543133522495</v>
+        <v>1.038671218570722</v>
       </c>
       <c r="L17">
-        <v>1.006202843324225</v>
+        <v>1.029732403416175</v>
       </c>
       <c r="M17">
-        <v>1.010233307015788</v>
+        <v>1.044969198803245</v>
       </c>
       <c r="N17">
-        <v>1.007391349514147</v>
+        <v>1.014757490646246</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9831972016654564</v>
+        <v>1.026194374154366</v>
       </c>
       <c r="D18">
-        <v>0.9975134048008433</v>
+        <v>1.035513367739179</v>
       </c>
       <c r="E18">
-        <v>0.992962032477997</v>
+        <v>1.026516811513554</v>
       </c>
       <c r="F18">
-        <v>0.997344344989032</v>
+        <v>1.041866802266019</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042614582628143</v>
+        <v>1.03125855538421</v>
       </c>
       <c r="J18">
-        <v>1.010910380436902</v>
+        <v>1.032362727959061</v>
       </c>
       <c r="K18">
-        <v>1.011375198604016</v>
+        <v>1.0388389764664</v>
       </c>
       <c r="L18">
-        <v>1.006903366421454</v>
+        <v>1.029873689852075</v>
       </c>
       <c r="M18">
-        <v>1.011209076490696</v>
+        <v>1.045170685911073</v>
       </c>
       <c r="N18">
-        <v>1.00762358688623</v>
+        <v>1.014802729860228</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9835884038942356</v>
+        <v>1.02626865970504</v>
       </c>
       <c r="D19">
-        <v>0.9978667952774216</v>
+        <v>1.035585120200683</v>
       </c>
       <c r="E19">
-        <v>0.9932704854406138</v>
+        <v>1.026579655682371</v>
       </c>
       <c r="F19">
-        <v>0.9977474596948015</v>
+        <v>1.041949998680082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042718780944553</v>
+        <v>1.031269654012127</v>
       </c>
       <c r="J19">
-        <v>1.01114774000467</v>
+        <v>1.032409269558804</v>
       </c>
       <c r="K19">
-        <v>1.011657710737273</v>
+        <v>1.038896169514883</v>
       </c>
       <c r="L19">
-        <v>1.007141225746797</v>
+        <v>1.029921857955249</v>
       </c>
       <c r="M19">
-        <v>1.011540435646167</v>
+        <v>1.045239386742461</v>
       </c>
       <c r="N19">
-        <v>1.007702420635123</v>
+        <v>1.01481815009857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9818323316465603</v>
+        <v>1.02593642764539</v>
       </c>
       <c r="D20">
-        <v>0.9962809462305294</v>
+        <v>1.035264244076895</v>
       </c>
       <c r="E20">
-        <v>0.9918864767355092</v>
+        <v>1.026298626126521</v>
       </c>
       <c r="F20">
-        <v>0.9959385311551796</v>
+        <v>1.041577967485301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042249731897144</v>
+        <v>1.031219841919122</v>
       </c>
       <c r="J20">
-        <v>1.010082007398306</v>
+        <v>1.032201068286559</v>
       </c>
       <c r="K20">
-        <v>1.010389507472148</v>
+        <v>1.038640356947457</v>
       </c>
       <c r="L20">
-        <v>1.006073508927828</v>
+        <v>1.029706411559488</v>
       </c>
       <c r="M20">
-        <v>1.01005317453477</v>
+        <v>1.044932136264001</v>
       </c>
       <c r="N20">
-        <v>1.007348462415876</v>
+        <v>1.014749166783551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9760049118774152</v>
+        <v>1.024856142398992</v>
       </c>
       <c r="D21">
-        <v>0.9910273404087392</v>
+        <v>1.034221360079613</v>
       </c>
       <c r="E21">
-        <v>0.9873048769762444</v>
+        <v>1.025385403609074</v>
       </c>
       <c r="F21">
-        <v>0.9899468262070061</v>
+        <v>1.040369211078298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040670221545604</v>
+        <v>1.031054803419576</v>
       </c>
       <c r="J21">
-        <v>1.006541280060561</v>
+        <v>1.031523200380066</v>
       </c>
       <c r="K21">
-        <v>1.006180720097656</v>
+        <v>1.037808130196429</v>
       </c>
       <c r="L21">
-        <v>1.002530821062148</v>
+        <v>1.029005498191962</v>
       </c>
       <c r="M21">
-        <v>1.005121195353894</v>
+        <v>1.043933164266433</v>
       </c>
       <c r="N21">
-        <v>1.006172528646009</v>
+        <v>1.014524538587911</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9722455881291316</v>
+        <v>1.024176798711855</v>
       </c>
       <c r="D22">
-        <v>0.9876453780026223</v>
+        <v>1.033565903410124</v>
       </c>
       <c r="E22">
-        <v>0.9843582389040085</v>
+        <v>1.024811560456231</v>
       </c>
       <c r="F22">
-        <v>0.9860902575343897</v>
+        <v>1.039609798316963</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039633947006158</v>
+        <v>1.030948668398208</v>
       </c>
       <c r="J22">
-        <v>1.00425420186724</v>
+        <v>1.031096245980742</v>
       </c>
       <c r="K22">
-        <v>1.003465620716373</v>
+        <v>1.037284454098021</v>
       </c>
       <c r="L22">
-        <v>1.000246063713425</v>
+        <v>1.02856444483429</v>
       </c>
       <c r="M22">
-        <v>1.001942398723559</v>
+        <v>1.04330501985387</v>
       </c>
       <c r="N22">
-        <v>1.005412994919293</v>
+        <v>1.014383033747334</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9742478381685261</v>
+        <v>1.024536943399756</v>
       </c>
       <c r="D23">
-        <v>0.9894459461585049</v>
+        <v>1.033913349813454</v>
       </c>
       <c r="E23">
-        <v>0.9859267726800061</v>
+        <v>1.025115733379108</v>
       </c>
       <c r="F23">
-        <v>0.9881434682429906</v>
+        <v>1.040012322171776</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040187477688664</v>
+        <v>1.031005156904187</v>
       </c>
       <c r="J23">
-        <v>1.005472576499459</v>
+        <v>1.031322653642219</v>
       </c>
       <c r="K23">
-        <v>1.004911685755974</v>
+        <v>1.037562104486593</v>
       </c>
       <c r="L23">
-        <v>1.001462863634715</v>
+        <v>1.028798289567707</v>
       </c>
       <c r="M23">
-        <v>1.003635168697696</v>
+        <v>1.043638015717279</v>
       </c>
       <c r="N23">
-        <v>1.005817609546963</v>
+        <v>1.014458073857128</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9819284808909706</v>
+        <v>1.025954536611684</v>
       </c>
       <c r="D24">
-        <v>0.9963677427980485</v>
+        <v>1.035281732274227</v>
       </c>
       <c r="E24">
-        <v>0.9919622140723322</v>
+        <v>1.026313942047194</v>
       </c>
       <c r="F24">
-        <v>0.996037533457198</v>
+        <v>1.041598242240216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042275500057379</v>
+        <v>1.031222568609541</v>
       </c>
       <c r="J24">
-        <v>1.010140375019623</v>
+        <v>1.032212420036613</v>
       </c>
       <c r="K24">
-        <v>1.010458946619009</v>
+        <v>1.038654302132994</v>
       </c>
       <c r="L24">
-        <v>1.006131968034913</v>
+        <v>1.02971815628639</v>
       </c>
       <c r="M24">
-        <v>1.010134593622799</v>
+        <v>1.044948883249167</v>
       </c>
       <c r="N24">
-        <v>1.007367847760657</v>
+        <v>1.014752928072751</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.990456102028659</v>
+        <v>1.027599013111158</v>
       </c>
       <c r="D25">
-        <v>1.004081016599079</v>
+        <v>1.036870707068546</v>
       </c>
       <c r="E25">
-        <v>0.9986983033013636</v>
+        <v>1.027705826208965</v>
       </c>
       <c r="F25">
-        <v>1.004837547719422</v>
+        <v>1.043441120276615</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044518973467742</v>
+        <v>1.031464527088701</v>
       </c>
       <c r="J25">
-        <v>1.0153089812872</v>
+        <v>1.033241647858485</v>
       </c>
       <c r="K25">
-        <v>1.016616308662916</v>
+        <v>1.03991987522174</v>
       </c>
       <c r="L25">
-        <v>1.011316860098987</v>
+        <v>1.030784012359532</v>
       </c>
       <c r="M25">
-        <v>1.017361228298154</v>
+        <v>1.04646982774578</v>
       </c>
       <c r="N25">
-        <v>1.009084497839857</v>
+        <v>1.015093896380358</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028910173402931</v>
+        <v>0.9969766779418614</v>
       </c>
       <c r="D2">
-        <v>1.038138879877032</v>
+        <v>1.009999677576619</v>
       </c>
       <c r="E2">
-        <v>1.028817105104139</v>
+        <v>1.003874674383177</v>
       </c>
       <c r="F2">
-        <v>1.04491299270009</v>
+        <v>1.011593791574827</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031649153012914</v>
+        <v>1.046171889043115</v>
       </c>
       <c r="J2">
-        <v>1.034059873731365</v>
+        <v>1.019248193618578</v>
       </c>
       <c r="K2">
-        <v>1.040927765599148</v>
+        <v>1.021321436925864</v>
       </c>
       <c r="L2">
-        <v>1.031632820015957</v>
+        <v>1.015280291488849</v>
       </c>
       <c r="M2">
-        <v>1.047682707642708</v>
+        <v>1.022893935307708</v>
       </c>
       <c r="N2">
-        <v>1.015364879796459</v>
+        <v>1.010392805104633</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029861912281781</v>
+        <v>1.001561461648684</v>
       </c>
       <c r="D3">
-        <v>1.039060141937868</v>
+        <v>1.014172466012271</v>
       </c>
       <c r="E3">
-        <v>1.029624621685975</v>
+        <v>1.007528094692494</v>
       </c>
       <c r="F3">
-        <v>1.045982851177255</v>
+        <v>1.016359713143651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031778346725071</v>
+        <v>1.047296604069773</v>
       </c>
       <c r="J3">
-        <v>1.034652409876265</v>
+        <v>1.02200964996579</v>
       </c>
       <c r="K3">
-        <v>1.041658685233339</v>
+        <v>1.02462716297912</v>
       </c>
       <c r="L3">
-        <v>1.032248353038171</v>
+        <v>1.018065549853879</v>
       </c>
       <c r="M3">
-        <v>1.048563226489965</v>
+        <v>1.026787461642699</v>
       </c>
       <c r="N3">
-        <v>1.015561069486552</v>
+        <v>1.011309892809871</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030477618998801</v>
+        <v>1.004462836905099</v>
       </c>
       <c r="D4">
-        <v>1.039656466401835</v>
+        <v>1.016818078878406</v>
       </c>
       <c r="E4">
-        <v>1.030147424307103</v>
+        <v>1.009846133014362</v>
       </c>
       <c r="F4">
-        <v>1.046675649200385</v>
+        <v>1.01938274454322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031859689918602</v>
+        <v>1.047990568640347</v>
       </c>
       <c r="J4">
-        <v>1.035035090525951</v>
+        <v>1.023753067723569</v>
       </c>
       <c r="K4">
-        <v>1.04213121930382</v>
+        <v>1.026717675068286</v>
       </c>
       <c r="L4">
-        <v>1.032646280229683</v>
+        <v>1.019827158789049</v>
       </c>
       <c r="M4">
-        <v>1.049132912718913</v>
+        <v>1.029252732552622</v>
       </c>
       <c r="N4">
-        <v>1.01568775280963</v>
+        <v>1.011888845599125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030736429830419</v>
+        <v>1.005667501618482</v>
       </c>
       <c r="D5">
-        <v>1.039907209602056</v>
+        <v>1.017917707136212</v>
       </c>
       <c r="E5">
-        <v>1.030367277722646</v>
+        <v>1.010810001459461</v>
       </c>
       <c r="F5">
-        <v>1.046967027071237</v>
+        <v>1.020639592591548</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03189334628578</v>
+        <v>1.048274372742331</v>
       </c>
       <c r="J5">
-        <v>1.035195793924522</v>
+        <v>1.024475919226814</v>
       </c>
       <c r="K5">
-        <v>1.042329771257815</v>
+        <v>1.027585283669643</v>
       </c>
       <c r="L5">
-        <v>1.032813480848956</v>
+        <v>1.020558313838462</v>
       </c>
       <c r="M5">
-        <v>1.04937239160569</v>
+        <v>1.030276618048226</v>
       </c>
       <c r="N5">
-        <v>1.015740946850848</v>
+        <v>1.012128877542868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030779883395647</v>
+        <v>1.005868901833784</v>
       </c>
       <c r="D6">
-        <v>1.039949313297573</v>
+        <v>1.018101614094422</v>
       </c>
       <c r="E6">
-        <v>1.030404195985761</v>
+        <v>1.010971225991316</v>
       </c>
       <c r="F6">
-        <v>1.047015958037714</v>
+        <v>1.020849814841205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031898965631727</v>
+        <v>1.048321563472373</v>
       </c>
       <c r="J6">
-        <v>1.035222766414228</v>
+        <v>1.024596706868774</v>
       </c>
       <c r="K6">
-        <v>1.042363103034891</v>
+        <v>1.027730310136577</v>
       </c>
       <c r="L6">
-        <v>1.032841549384506</v>
+        <v>1.020680533819546</v>
       </c>
       <c r="M6">
-        <v>1.049412600131087</v>
+        <v>1.030447811373219</v>
       </c>
       <c r="N6">
-        <v>1.015749874624496</v>
+        <v>1.012168985833519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030481077369467</v>
+        <v>1.004478992207088</v>
       </c>
       <c r="D7">
-        <v>1.03965981665585</v>
+        <v>1.016832821044854</v>
       </c>
       <c r="E7">
-        <v>1.030150361736612</v>
+        <v>1.009859053582534</v>
       </c>
       <c r="F7">
-        <v>1.046679542113363</v>
+        <v>1.019399593071068</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031860141760645</v>
+        <v>1.047994391840455</v>
       </c>
       <c r="J7">
-        <v>1.035037238543448</v>
+        <v>1.023762765707131</v>
       </c>
       <c r="K7">
-        <v>1.042133872764162</v>
+        <v>1.026729311794641</v>
       </c>
       <c r="L7">
-        <v>1.032648514719318</v>
+        <v>1.0198369651626</v>
       </c>
       <c r="M7">
-        <v>1.049136112716189</v>
+        <v>1.029266462370697</v>
       </c>
       <c r="N7">
-        <v>1.015688463841408</v>
+        <v>1.011892065986926</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029231844935385</v>
+        <v>0.9985399895354981</v>
       </c>
       <c r="D8">
-        <v>1.038450181390496</v>
+        <v>1.011421446122138</v>
       </c>
       <c r="E8">
-        <v>1.029089949343292</v>
+        <v>1.005119112055115</v>
       </c>
       <c r="F8">
-        <v>1.045274446545542</v>
+        <v>1.013217382454028</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031693280842871</v>
+        <v>1.046559085830695</v>
       </c>
       <c r="J8">
-        <v>1.034260274728755</v>
+        <v>1.020190628527034</v>
       </c>
       <c r="K8">
-        <v>1.041174869717002</v>
+        <v>1.022448897672746</v>
       </c>
       <c r="L8">
-        <v>1.031840917096196</v>
+        <v>1.016230185351031</v>
       </c>
       <c r="M8">
-        <v>1.047980296756139</v>
+        <v>1.024221243545967</v>
       </c>
       <c r="N8">
-        <v>1.015431237612965</v>
+        <v>1.010705797885713</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027029556124566</v>
+        <v>0.9875481023217322</v>
       </c>
       <c r="D9">
-        <v>1.036320272835548</v>
+        <v>1.001447318097715</v>
       </c>
       <c r="E9">
-        <v>1.027223602365327</v>
+        <v>0.9963970174441941</v>
       </c>
       <c r="F9">
-        <v>1.042802568995058</v>
+        <v>1.001832267711949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03138202197568</v>
+        <v>1.043763636755475</v>
       </c>
       <c r="J9">
-        <v>1.032885610837269</v>
+        <v>1.013548363720424</v>
       </c>
       <c r="K9">
-        <v>1.039481806195927</v>
+        <v>1.01451695713866</v>
       </c>
       <c r="L9">
-        <v>1.030415078214094</v>
+        <v>1.00954882226149</v>
       </c>
       <c r="M9">
-        <v>1.045943114441034</v>
+        <v>1.014895687434605</v>
       </c>
       <c r="N9">
-        <v>1.014975959225688</v>
+        <v>1.008499741188292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025560740107344</v>
+        <v>0.9798263076921762</v>
       </c>
       <c r="D10">
-        <v>1.03490148129766</v>
+        <v>0.9944709085066916</v>
       </c>
       <c r="E10">
-        <v>1.025980938630209</v>
+        <v>0.9903073858177384</v>
       </c>
       <c r="F10">
-        <v>1.041157440085454</v>
+        <v>0.9938740501251562</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03116297527142</v>
+        <v>1.041709886788155</v>
       </c>
       <c r="J10">
-        <v>1.03196547974663</v>
+        <v>1.008863838522134</v>
       </c>
       <c r="K10">
-        <v>1.038351009346728</v>
+        <v>1.008940715197917</v>
       </c>
       <c r="L10">
-        <v>1.029462720256051</v>
+        <v>1.004853876767088</v>
       </c>
       <c r="M10">
-        <v>1.044584712374935</v>
+        <v>1.008354798443414</v>
       </c>
       <c r="N10">
-        <v>1.014671103920854</v>
+        <v>1.006943881266148</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024924585496776</v>
+        <v>0.9763795444354549</v>
       </c>
       <c r="D11">
-        <v>1.034287412177596</v>
+        <v>0.9913646742951562</v>
       </c>
       <c r="E11">
-        <v>1.025443236447465</v>
+        <v>0.9875989066813923</v>
       </c>
       <c r="F11">
-        <v>1.040445751590834</v>
+        <v>0.9903315186541775</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03106539692451</v>
+        <v>1.040772775044981</v>
       </c>
       <c r="J11">
-        <v>1.031566187067923</v>
+        <v>1.006769080906222</v>
       </c>
       <c r="K11">
-        <v>1.037860876213792</v>
+        <v>1.006451298512645</v>
       </c>
       <c r="L11">
-        <v>1.029049922002814</v>
+        <v>1.002758541049763</v>
       </c>
       <c r="M11">
-        <v>1.04399645187341</v>
+        <v>1.005438101117221</v>
       </c>
       <c r="N11">
-        <v>1.014538784630145</v>
+        <v>1.006248182899383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024688267624654</v>
+        <v>0.9750828612344709</v>
       </c>
       <c r="D12">
-        <v>1.034059361995853</v>
+        <v>0.9901973274601167</v>
       </c>
       <c r="E12">
-        <v>1.025243567920642</v>
+        <v>0.986581504825682</v>
       </c>
       <c r="F12">
-        <v>1.040181499054182</v>
+        <v>0.9890003033768952</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031028742510847</v>
+        <v>1.040417251994726</v>
       </c>
       <c r="J12">
-        <v>1.031417741966989</v>
+        <v>1.005980520253131</v>
       </c>
       <c r="K12">
-        <v>1.03767874592897</v>
+        <v>1.005514772156424</v>
       </c>
       <c r="L12">
-        <v>1.028896527841701</v>
+        <v>1.001970377799826</v>
       </c>
       <c r="M12">
-        <v>1.043777936849329</v>
+        <v>1.004341318573968</v>
       </c>
       <c r="N12">
-        <v>1.014489588289573</v>
+        <v>1.00598629790414</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0247389595864</v>
+        <v>0.9753617616240444</v>
       </c>
       <c r="D13">
-        <v>1.034108277600832</v>
+        <v>0.9904483528135744</v>
       </c>
       <c r="E13">
-        <v>1.025286394856581</v>
+        <v>0.9868002646434126</v>
       </c>
       <c r="F13">
-        <v>1.040238177573488</v>
+        <v>0.9892865630995203</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031036623526373</v>
+        <v>1.040493853755014</v>
       </c>
       <c r="J13">
-        <v>1.031449589818238</v>
+        <v>1.006150151778308</v>
       </c>
       <c r="K13">
-        <v>1.03771781678635</v>
+        <v>1.005716206398144</v>
       </c>
       <c r="L13">
-        <v>1.028929434226932</v>
+        <v>1.002139896020467</v>
       </c>
       <c r="M13">
-        <v>1.043824809455302</v>
+        <v>1.004577200014117</v>
       </c>
       <c r="N13">
-        <v>1.0145001431974</v>
+        <v>1.006042633030597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02490505182836</v>
+        <v>0.9762727002434133</v>
       </c>
       <c r="D14">
-        <v>1.03426856060815</v>
+        <v>0.9912684618873869</v>
       </c>
       <c r="E14">
-        <v>1.025426730595699</v>
+        <v>0.9875150430742294</v>
       </c>
       <c r="F14">
-        <v>1.040423906344901</v>
+        <v>0.9902217985071925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031062375408702</v>
+        <v>1.040743540662728</v>
       </c>
       <c r="J14">
-        <v>1.031553919198166</v>
+        <v>1.006704114991916</v>
       </c>
       <c r="K14">
-        <v>1.037845822753137</v>
+        <v>1.006374130226552</v>
       </c>
       <c r="L14">
-        <v>1.029037243664557</v>
+        <v>1.002693595368749</v>
       </c>
       <c r="M14">
-        <v>1.043978389530797</v>
+        <v>1.005347718163253</v>
       </c>
       <c r="N14">
-        <v>1.014534719003948</v>
+        <v>1.006226607229953</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025007383874895</v>
+        <v>0.9768317580769238</v>
       </c>
       <c r="D15">
-        <v>1.034367321905811</v>
+        <v>0.9917719397241817</v>
       </c>
       <c r="E15">
-        <v>1.025513203792303</v>
+        <v>0.9879539189955758</v>
       </c>
       <c r="F15">
-        <v>1.04053835327451</v>
+        <v>0.9907959657986161</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031078187753204</v>
+        <v>1.040896387506722</v>
       </c>
       <c r="J15">
-        <v>1.03161818276302</v>
+        <v>1.00704402616918</v>
       </c>
       <c r="K15">
-        <v>1.037924681799369</v>
+        <v>1.006777910435487</v>
       </c>
       <c r="L15">
-        <v>1.029103660355958</v>
+        <v>1.003033425747288</v>
       </c>
       <c r="M15">
-        <v>1.044073014126539</v>
+        <v>1.005820663413716</v>
       </c>
       <c r="N15">
-        <v>1.014556016070455</v>
+        <v>1.006339494595913</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025602956522667</v>
+        <v>0.9800528088758473</v>
       </c>
       <c r="D16">
-        <v>1.034942240948384</v>
+        <v>0.9946751992456725</v>
       </c>
       <c r="E16">
-        <v>1.02601663223277</v>
+        <v>0.9904855800713036</v>
       </c>
       <c r="F16">
-        <v>1.041204686532692</v>
+        <v>0.9941070502853326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031169393767946</v>
+        <v>1.041771051044123</v>
       </c>
       <c r="J16">
-        <v>1.031991961216801</v>
+        <v>1.009001420613691</v>
       </c>
       <c r="K16">
-        <v>1.038383527591035</v>
+        <v>1.00910430215875</v>
       </c>
       <c r="L16">
-        <v>1.02949010751021</v>
+        <v>1.00499158186773</v>
       </c>
       <c r="M16">
-        <v>1.044623752006005</v>
+        <v>1.008546531899786</v>
       </c>
       <c r="N16">
-        <v>1.014679878902581</v>
+        <v>1.006989575030884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02597650431579</v>
+        <v>0.9820450510580744</v>
       </c>
       <c r="D17">
-        <v>1.035302947209648</v>
+        <v>0.9964729789387857</v>
       </c>
       <c r="E17">
-        <v>1.026332521883443</v>
+        <v>0.9920540433770116</v>
       </c>
       <c r="F17">
-        <v>1.041622837775095</v>
+        <v>0.9961575689650335</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031225874528443</v>
+        <v>1.042306727755286</v>
       </c>
       <c r="J17">
-        <v>1.032226190154131</v>
+        <v>1.010211136746562</v>
       </c>
       <c r="K17">
-        <v>1.038671218570722</v>
+        <v>1.010543133522494</v>
       </c>
       <c r="L17">
-        <v>1.029732403416175</v>
+        <v>1.006202843324223</v>
       </c>
       <c r="M17">
-        <v>1.044969198803245</v>
+        <v>1.010233307015787</v>
       </c>
       <c r="N17">
-        <v>1.014757490646246</v>
+        <v>1.007391349514147</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026194374154366</v>
+        <v>0.9831972016654555</v>
       </c>
       <c r="D18">
-        <v>1.035513367739179</v>
+        <v>0.9975134048008427</v>
       </c>
       <c r="E18">
-        <v>1.026516811513554</v>
+        <v>0.9929620324779962</v>
       </c>
       <c r="F18">
-        <v>1.041866802266019</v>
+        <v>0.997344344989031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03125855538421</v>
+        <v>1.042614582628143</v>
       </c>
       <c r="J18">
-        <v>1.032362727959061</v>
+        <v>1.010910380436901</v>
       </c>
       <c r="K18">
-        <v>1.0388389764664</v>
+        <v>1.011375198604015</v>
       </c>
       <c r="L18">
-        <v>1.029873689852075</v>
+        <v>1.006903366421453</v>
       </c>
       <c r="M18">
-        <v>1.045170685911073</v>
+        <v>1.011209076490695</v>
       </c>
       <c r="N18">
-        <v>1.014802729860228</v>
+        <v>1.00762358688623</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02626865970504</v>
+        <v>0.983588403894236</v>
       </c>
       <c r="D19">
-        <v>1.035585120200683</v>
+        <v>0.9978667952774219</v>
       </c>
       <c r="E19">
-        <v>1.026579655682371</v>
+        <v>0.993270485440614</v>
       </c>
       <c r="F19">
-        <v>1.041949998680082</v>
+        <v>0.9977474596948018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031269654012127</v>
+        <v>1.042718780944553</v>
       </c>
       <c r="J19">
-        <v>1.032409269558804</v>
+        <v>1.01114774000467</v>
       </c>
       <c r="K19">
-        <v>1.038896169514883</v>
+        <v>1.011657710737274</v>
       </c>
       <c r="L19">
-        <v>1.029921857955249</v>
+        <v>1.007141225746797</v>
       </c>
       <c r="M19">
-        <v>1.045239386742461</v>
+        <v>1.011540435646167</v>
       </c>
       <c r="N19">
-        <v>1.01481815009857</v>
+        <v>1.007702420635123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02593642764539</v>
+        <v>0.9818323316465605</v>
       </c>
       <c r="D20">
-        <v>1.035264244076895</v>
+        <v>0.9962809462305298</v>
       </c>
       <c r="E20">
-        <v>1.026298626126521</v>
+        <v>0.9918864767355092</v>
       </c>
       <c r="F20">
-        <v>1.041577967485301</v>
+        <v>0.9959385311551801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031219841919122</v>
+        <v>1.042249731897144</v>
       </c>
       <c r="J20">
-        <v>1.032201068286559</v>
+        <v>1.010082007398306</v>
       </c>
       <c r="K20">
-        <v>1.038640356947457</v>
+        <v>1.010389507472149</v>
       </c>
       <c r="L20">
-        <v>1.029706411559488</v>
+        <v>1.006073508927828</v>
       </c>
       <c r="M20">
-        <v>1.044932136264001</v>
+        <v>1.010053174534771</v>
       </c>
       <c r="N20">
-        <v>1.014749166783551</v>
+        <v>1.007348462415876</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024856142398992</v>
+        <v>0.9760049118774143</v>
       </c>
       <c r="D21">
-        <v>1.034221360079613</v>
+        <v>0.9910273404087381</v>
       </c>
       <c r="E21">
-        <v>1.025385403609074</v>
+        <v>0.9873048769762431</v>
       </c>
       <c r="F21">
-        <v>1.040369211078298</v>
+        <v>0.9899468262070047</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031054803419576</v>
+        <v>1.040670221545604</v>
       </c>
       <c r="J21">
-        <v>1.031523200380066</v>
+        <v>1.00654128006056</v>
       </c>
       <c r="K21">
-        <v>1.037808130196429</v>
+        <v>1.006180720097654</v>
       </c>
       <c r="L21">
-        <v>1.029005498191962</v>
+        <v>1.002530821062147</v>
       </c>
       <c r="M21">
-        <v>1.043933164266433</v>
+        <v>1.005121195353892</v>
       </c>
       <c r="N21">
-        <v>1.014524538587911</v>
+        <v>1.006172528646009</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024176798711855</v>
+        <v>0.9722455881291321</v>
       </c>
       <c r="D22">
-        <v>1.033565903410124</v>
+        <v>0.9876453780026226</v>
       </c>
       <c r="E22">
-        <v>1.024811560456231</v>
+        <v>0.9843582389040089</v>
       </c>
       <c r="F22">
-        <v>1.039609798316963</v>
+        <v>0.9860902575343903</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030948668398208</v>
+        <v>1.039633947006158</v>
       </c>
       <c r="J22">
-        <v>1.031096245980742</v>
+        <v>1.00425420186724</v>
       </c>
       <c r="K22">
-        <v>1.037284454098021</v>
+        <v>1.003465620716374</v>
       </c>
       <c r="L22">
-        <v>1.02856444483429</v>
+        <v>1.000246063713425</v>
       </c>
       <c r="M22">
-        <v>1.04330501985387</v>
+        <v>1.00194239872356</v>
       </c>
       <c r="N22">
-        <v>1.014383033747334</v>
+        <v>1.005412994919293</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024536943399756</v>
+        <v>0.9742478381685257</v>
       </c>
       <c r="D23">
-        <v>1.033913349813454</v>
+        <v>0.9894459461585045</v>
       </c>
       <c r="E23">
-        <v>1.025115733379108</v>
+        <v>0.9859267726800059</v>
       </c>
       <c r="F23">
-        <v>1.040012322171776</v>
+        <v>0.9881434682429903</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031005156904187</v>
+        <v>1.040187477688664</v>
       </c>
       <c r="J23">
-        <v>1.031322653642219</v>
+        <v>1.005472576499458</v>
       </c>
       <c r="K23">
-        <v>1.037562104486593</v>
+        <v>1.004911685755974</v>
       </c>
       <c r="L23">
-        <v>1.028798289567707</v>
+        <v>1.001462863634715</v>
       </c>
       <c r="M23">
-        <v>1.043638015717279</v>
+        <v>1.003635168697696</v>
       </c>
       <c r="N23">
-        <v>1.014458073857128</v>
+        <v>1.005817609546963</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025954536611684</v>
+        <v>0.9819284808909712</v>
       </c>
       <c r="D24">
-        <v>1.035281732274227</v>
+        <v>0.9963677427980492</v>
       </c>
       <c r="E24">
-        <v>1.026313942047194</v>
+        <v>0.9919622140723325</v>
       </c>
       <c r="F24">
-        <v>1.041598242240216</v>
+        <v>0.9960375334571987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031222568609541</v>
+        <v>1.04227550005738</v>
       </c>
       <c r="J24">
-        <v>1.032212420036613</v>
+        <v>1.010140375019623</v>
       </c>
       <c r="K24">
-        <v>1.038654302132994</v>
+        <v>1.010458946619009</v>
       </c>
       <c r="L24">
-        <v>1.02971815628639</v>
+        <v>1.006131968034913</v>
       </c>
       <c r="M24">
-        <v>1.044948883249167</v>
+        <v>1.0101345936228</v>
       </c>
       <c r="N24">
-        <v>1.014752928072751</v>
+        <v>1.007367847760657</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027599013111158</v>
+        <v>0.9904561020286591</v>
       </c>
       <c r="D25">
-        <v>1.036870707068546</v>
+        <v>1.004081016599079</v>
       </c>
       <c r="E25">
-        <v>1.027705826208965</v>
+        <v>0.9986983033013636</v>
       </c>
       <c r="F25">
-        <v>1.043441120276615</v>
+        <v>1.004837547719422</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031464527088701</v>
+        <v>1.044518973467742</v>
       </c>
       <c r="J25">
-        <v>1.033241647858485</v>
+        <v>1.0153089812872</v>
       </c>
       <c r="K25">
-        <v>1.03991987522174</v>
+        <v>1.016616308662917</v>
       </c>
       <c r="L25">
-        <v>1.030784012359532</v>
+        <v>1.011316860098987</v>
       </c>
       <c r="M25">
-        <v>1.04646982774578</v>
+        <v>1.017361228298155</v>
       </c>
       <c r="N25">
-        <v>1.015093896380358</v>
+        <v>1.009084497839857</v>
       </c>
     </row>
   </sheetData>
